--- a/Dataset/Folds/Fold_5/Excel/22.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/22.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="344">
   <si>
     <t>Doi</t>
   </si>
@@ -1035,6 +1035,111 @@
   </si>
   <si>
     <t>[Yicheng%Fang%NULL%3,                           Huangqi%Zhang%NULL%2,                           Huangqi%Zhang%NULL%0,                           Jicheng%Xie%NULL%2,                           Jicheng%Xie%NULL%0,                           Minjie%Lin%NULL%2,                           Minjie%Lin%NULL%0,                           Lingjun%Ying%NULL%2,                           Lingjun%Ying%NULL%0,                           Peipei%Pang%NULL%2,                           Peipei%Pang%NULL%0,                           Wenbin%Ji%1224190004@qq.com%2,                           Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,                            Zhenyu%Pan%NULL%2,                            Yunbao%Pan%NULL%2,                            Qiaoling%Deng%NULL%2,                            Liangjun%Chen%NULL%2,                            Jin%Li%NULL%2,                            Yirong%Li%NULL%4,                            Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,                            Pingzheng%Mo%NULL%2,                            Yu%Xiao%NULL%2,                            Oiu%Zhao%NULL%1,                            Yongxi%Zhang%NULL%4,                            Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,                            Owen Tak-Yin%Tsang%NULL%1,                            Wai-Shing%Leung%NULL%1,                            Anthony Raymond%Tam%NULL%1,                            Tak-Chiu%Wu%NULL%1,                            David Christopher%Lung%NULL%1,                            Cyril Chik-Yan%Yip%NULL%1,                            Jian-Piao%Cai%NULL%2,                            Jacky Man-Chun%Chan%NULL%1,                            Thomas Shiu-Hong%Chik%NULL%1,                            Daphne Pui-Ling%Lau%NULL%1,                            Chris Yau-Chung%Choi%NULL%1,                            Lin-Lei%Chen%NULL%1,                            Wan-Mui%Chan%NULL%1,                            Kwok-Hung%Chan%NULL%2,                            Jonathan Daniel%Ip%NULL%1,                            Anthony Chin-Ki%Ng%NULL%1,                            Rosana Wing-Shan%Poon%NULL%1,                            Cui-Ting%Luo%NULL%1,                            Vincent Chi-Chung%Cheng%NULL%1,                            Jasper Fuk-Woo%Chan%NULL%3,                            Ivan Fan-Ngai%Hung%NULL%2,                            Zhiwei%Chen%NULL%1,                            Honglin%Chen%NULL%1,                            Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,                            Guillaume%Carissimo%NULL%1,                            Bei%Wang%NULL%2,                            Bei%Wang%NULL%0,                            Siti Naqiah%Amrun%NULL%1,                            Cheryl Yi-Pin%Lee%NULL%1,                            Rhonda Sin-Ling%Chee%NULL%1,                            Siew-Wai%Fong%NULL%1,                            Nicholas Kim-Wah%Yeo%NULL%1,                            Wen-Hsin%Lee%NULL%1,                            Anthony%Torres-Ruesta%NULL%1,                            Yee-Sin%Leo%NULL%2,                            Yee-Sin%Leo%NULL%0,                            Mark I-Cheng%Chen%NULL%1,                            Seow-Yen%Tan%NULL%1,                            Louis Yi Ann%Chai%NULL%1,                            Shirin%Kalimuddin%NULL%1,                            Shirley Seah Gek%Kheng%NULL%1,                            Siew-Yee%Thien%NULL%1,                            Barnaby Edward%Young%NULL%2,                            David C.%Lye%NULL%1,                            Brendon John%Hanson%NULL%1,                            Cheng-I%Wang%NULL%1,                            Laurent%Renia%NULL%1,                            Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,                            Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,                            Rong-Hui%Du%NULL%1,                            Bei%Li%NULL%1,                            Xiao-Shuang%Zheng%NULL%1,                            Xing-Lou%Yang%NULL%1,                            Ben%Hu%NULL%1,                            Yan-Yi%Wang%NULL%1,                            Geng-Fu%Xiao%NULL%1,                            Bing%Yan%NULL%1,                            Zheng-Li%Shi%NULL%1,                            Peng%Zhou%NULL%2,                            Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,                            Huangqi%Zhang%NULL%2,                            Huangqi%Zhang%NULL%0,                            Jicheng%Xie%NULL%2,                            Jicheng%Xie%NULL%0,                            Minjie%Lin%NULL%2,                            Minjie%Lin%NULL%0,                            Lingjun%Ying%NULL%2,                            Lingjun%Ying%NULL%0,                            Peipei%Pang%NULL%2,                            Peipei%Pang%NULL%0,                            Wenbin%Ji%1224190004@qq.com%2,                            Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,                             Zhenyu%Pan%NULL%2,                             Yunbao%Pan%NULL%2,                             Qiaoling%Deng%NULL%2,                             Liangjun%Chen%NULL%2,                             Jin%Li%NULL%2,                             Yirong%Li%NULL%4,                             Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,                             Pingzheng%Mo%NULL%2,                             Yu%Xiao%NULL%2,                             Oiu%Zhao%NULL%1,                             Yongxi%Zhang%NULL%4,                             Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,                             Owen Tak-Yin%Tsang%NULL%1,                             Wai-Shing%Leung%NULL%1,                             Anthony Raymond%Tam%NULL%1,                             Tak-Chiu%Wu%NULL%1,                             David Christopher%Lung%NULL%1,                             Cyril Chik-Yan%Yip%NULL%1,                             Jian-Piao%Cai%NULL%2,                             Jacky Man-Chun%Chan%NULL%1,                             Thomas Shiu-Hong%Chik%NULL%1,                             Daphne Pui-Ling%Lau%NULL%1,                             Chris Yau-Chung%Choi%NULL%1,                             Lin-Lei%Chen%NULL%1,                             Wan-Mui%Chan%NULL%1,                             Kwok-Hung%Chan%NULL%1,                             Jonathan Daniel%Ip%NULL%1,                             Anthony Chin-Ki%Ng%NULL%1,                             Rosana Wing-Shan%Poon%NULL%1,                             Cui-Ting%Luo%NULL%1,                             Vincent Chi-Chung%Cheng%NULL%1,                             Jasper Fuk-Woo%Chan%NULL%3,                             Ivan Fan-Ngai%Hung%NULL%2,                             Zhiwei%Chen%NULL%1,                             Honglin%Chen%NULL%1,                             Kwok-Yung%Yuen%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,                             Guillaume%Carissimo%NULL%1,                             Bei%Wang%NULL%2,                             Bei%Wang%NULL%0,                             Siti Naqiah%Amrun%NULL%1,                             Cheryl Yi-Pin%Lee%NULL%1,                             Rhonda Sin-Ling%Chee%NULL%1,                             Siew-Wai%Fong%NULL%1,                             Nicholas Kim-Wah%Yeo%NULL%1,                             Wen-Hsin%Lee%NULL%1,                             Anthony%Torres-Ruesta%NULL%1,                             Yee-Sin%Leo%NULL%2,                             Yee-Sin%Leo%NULL%0,                             Mark I-Cheng%Chen%NULL%1,                             Seow-Yen%Tan%NULL%1,                             Louis Yi Ann%Chai%NULL%1,                             Shirin%Kalimuddin%NULL%1,                             Shirley Seah Gek%Kheng%NULL%1,                             Siew-Yee%Thien%NULL%1,                             Barnaby Edward%Young%NULL%2,                             David C.%Lye%NULL%1,                             Brendon John%Hanson%NULL%1,                             Cheng-I%Wang%NULL%1,                             Laurent%Renia%NULL%1,                             Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,                             Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,                             Rong-Hui%Du%NULL%1,                             Bei%Li%NULL%1,                             Xiao-Shuang%Zheng%NULL%1,                             Xing-Lou%Yang%NULL%1,                             Ben%Hu%NULL%1,                             Yan-Yi%Wang%NULL%1,                             Geng-Fu%Xiao%NULL%1,                             Bing%Yan%NULL%1,                             Zheng-Li%Shi%NULL%1,                             Peng%Zhou%NULL%2,                             Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,                             Huangqi%Zhang%NULL%2,                             Huangqi%Zhang%NULL%0,                             Jicheng%Xie%NULL%2,                             Jicheng%Xie%NULL%0,                             Minjie%Lin%NULL%2,                             Minjie%Lin%NULL%0,                             Lingjun%Ying%NULL%2,                             Lingjun%Ying%NULL%0,                             Peipei%Pang%NULL%2,                             Peipei%Pang%NULL%0,                             Wenbin%Ji%1224190004@qq.com%2,                             Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              All reactivated patients presented normal aminotransferase levels.
+</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0, Zhenyu%Pan%NULL%2, Yunbao%Pan%NULL%2, Qiaoling%Deng%NULL%2, Liangjun%Chen%NULL%0, Jin%Li%NULL%2, Yirong%Li%NULL%5, Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since December 2019, 62 medical staff of Zhongnan Hospital in Wuhan, China have been hospitalised with coronavirus disease 2019. During the post-discharge surveillance after clinical recovery, swabs were positive in two asymptomatic cases (3.23%).
+ Case 1 had presented typical clinical and radiological manifestations on admission, while manifestation in Case 2 was very mild.
+ In conclusion, a small proportion of recovered patients may test positive after discharge, and post-discharge surveillance and isolation need to be strengthened.
+</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%0, Pingzheng%Mo%NULL%0, Yu%Xiao%NULL%0, Oiu%Zhao%NULL%1, Yongxi%Zhang%NULL%0, Fan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>European Centre for Disease Prevention and Control (ECDC)</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0, Owen Tak-Yin%Tsang%NULL%2, Wai-Shing%Leung%NULL%2, Anthony Raymond%Tam%NULL%2, Tak-Chiu%Wu%NULL%2, David Christopher%Lung%NULL%2, Cyril Chik-Yan%Yip%NULL%0, Jian-Piao%Cai%NULL%0, Jacky Man-Chun%Chan%NULL%2, Thomas Shiu-Hong%Chik%NULL%2, Daphne Pui-Ling%Lau%NULL%2, Chris Yau-Chung%Choi%NULL%2, Lin-Lei%Chen%NULL%2, Wan-Mui%Chan%NULL%0, Kwok-Hung%Chan%NULL%0, Jonathan Daniel%Ip%NULL%0, Anthony Chin-Ki%Ng%NULL%2, Rosana Wing-Shan%Poon%NULL%0, Cui-Ting%Luo%NULL%2, Vincent Chi-Chung%Cheng%NULL%0, Jasper Fuk-Woo%Chan%NULL%0, Ivan Fan-Ngai%Hung%NULL%3, Zhiwei%Chen%NULL%2, Honglin%Chen%NULL%0, Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;Given the ongoing SARS-CoV-2 pandemic, identification of immunogenic targets against the coronavirus spike glycoprotein will provide crucial advances towards the development of sensitive diagnostic tools and potential vaccine candidate targets.
+ In this study, using pools of overlapping linear B-cell peptides, we report two IgG immunodominant regions on SARS-CoV-2 spike glycoprotein that are recognised by sera from COVID-19 convalescent patients.
+ Notably, one is specific to SARS-CoV-2, which is located in close proximity to the receptor binding domain.
+ The other region, which is localised at the fusion peptide, could potentially function as a pan-SARS target.
+ Functionally, antibody depletion assays demonstrate that antibodies targeting these immunodominant regions significantly alter virus neutralisation capacities.
+ Taken together, identification and validation of these neutralising B-cell epitopes will provide insights towards the design of diagnostics and vaccine candidates against this high priority coronavirus.
+</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%0, Guillaume%Carissimo%NULL%1, Bei%Wang%NULL%2, Bei%Wang%NULL%0, Siti Naqiah%Amrun%NULL%1, Cheryl Yi-Pin%Lee%NULL%1, Rhonda Sin-Ling%Chee%NULL%1, Siew-Wai%Fong%NULL%1, Nicholas Kim-Wah%Yeo%NULL%1, Wen-Hsin%Lee%NULL%1, Anthony%Torres-Ruesta%NULL%1, Yee-Sin%Leo%NULL%3, Yee-Sin%Leo%NULL%0, Mark I-Cheng%Chen%NULL%1, Seow-Yen%Tan%NULL%1, Louis Yi Ann%Chai%NULL%1, Shirin%Kalimuddin%NULL%1, Shirley Seah Gek%Kheng%NULL%1, Siew-Yee%Thien%NULL%1, Barnaby Edward%Young%NULL%3, David C.%Lye%NULL%1, Brendon John%Hanson%NULL%1, Cheng-I%Wang%NULL%1, Laurent%Renia%NULL%1, Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2, Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>Nature Publishing Group UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In December 2019, a novel coronavirus (2019-nCoV) caused an outbreak in Wuhan, China, and soon spread to other parts of the world.
+ It was believed that 2019-nCoV was transmitted through respiratory tract and then induced pneumonia, thus molecular diagnosis based on oral swabs was used for confirmation of this disease.
+ Likewise, patient will be released upon two times of negative detection from oral swabs.
+ However, many coronaviruses can also be transmitted through oral–fecal route by infecting intestines.
+ Whether 2019-nCoV infected patients also carry virus in other organs like intestine need to be tested.
+ We conducted investigation on patients in a local hospital who were infected with this virus.
+ We found the presence of 2019-nCoV in anal swabs and blood as well, and more anal swab positives than oral swab positives in a later stage of infection, suggesting shedding and thereby transmitted through oral–fecal route.
+ We also showed serology test can improve detection positive rate thus should be used in future epidemiology.
+ Our report provides a cautionary warning that 2019-nCoV may be shed through multiple routes.
+</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%0, Rong-Hui%Du%NULL%0, Bei%Li%NULL%2, Xiao-Shuang%Zheng%NULL%1, Xing-Lou%Yang%NULL%1, Ben%Hu%NULL%1, Yan-Yi%Wang%NULL%1, Geng-Fu%Xiao%NULL%1, Bing%Yan%NULL%1, Zheng-Li%Shi%NULL%2, Peng%Zhou%NULL%2, Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>Taylor &amp;amp; Francis</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%0, Huangqi%Zhang%NULL%6, Huangqi%Zhang%NULL%0, Jicheng%Xie%NULL%6, Jicheng%Xie%NULL%0, Minjie%Lin%NULL%4, Minjie%Lin%NULL%0, Lingjun%Ying%NULL%4, Lingjun%Ying%NULL%0, Peipei%Pang%NULL%6, Peipei%Pang%NULL%0, Wenbin%Ji%1224190004@qq.com%6, Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>Radiological Society of North America</t>
   </si>
 </sst>
 </file>
@@ -1377,10 +1482,10 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>328</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1392,10 +1497,10 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
@@ -1406,25 +1511,25 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>232</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
         <v>65</v>
@@ -1441,10 +1546,10 @@
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>331</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1456,10 +1561,10 @@
         <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5">
@@ -1476,7 +1581,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1488,10 +1593,10 @@
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6">
@@ -1502,25 +1607,25 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
         <v>65</v>
@@ -1537,10 +1642,10 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>336</v>
       </c>
       <c r="E7" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1552,10 +1657,10 @@
         <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>239</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8">
@@ -1569,10 +1674,10 @@
         <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>339</v>
       </c>
       <c r="E8" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1584,10 +1689,10 @@
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9">
@@ -1598,25 +1703,25 @@
         <v>43963.0</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
         <v>65</v>
@@ -1636,7 +1741,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1648,10 +1753,10 @@
         <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
